--- a/まさかこれが設計書とは思うまい.xlsx
+++ b/まさかこれが設計書とは思うまい.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="210">
   <si>
     <t>勝数</t>
   </si>
@@ -41,6 +41,9 @@
     <t>最後に比較される値です。「これまでに対戦した相手の中で、勝利した相手の勝数を並べたとき最大勝数と最小勝数を１つずつ除算した上で合計した値」となります。万が一、運勝ち運負けをしているときにそれらの要素を除き比較することができるというイメージかと思います。勝った相手だけを並べて比較するため、不戦勝要素があるとその分は最小勝数０とは換算されないため覚えておかなければなりません。</t>
   </si>
   <si>
+    <t>順位判定基準</t>
+  </si>
+  <si>
     <t>OS/M(Opponent Scores per Match)…（各々の対戦相手の勝ち点の和）÷（各々の対戦相手の試合数の和）÷3</t>
   </si>
   <si>
@@ -50,6 +53,288 @@
     <t>MD/M (Median per Match)…DOS/Mの計算から最も勝ち点が高いプレイヤーと低いプレイヤーを除いて計算</t>
   </si>
   <si>
+    <t>第2回戦以降は各参加者で持っている勝ち点の数が違うはずなので、「勝ち点が同じ参加者同士」の中でランダムに組み合わせる。</t>
+  </si>
+  <si>
+    <t>原則として勝ち点が多い方から組み合わせを行っていき、同じ勝ち点ラインの中で組み合わせを行った結果1人余った場合、1つ下の勝ち点ラインの人と組み合わせる。</t>
+  </si>
+  <si>
+    <t>全てのラインの組み合わせを終えて1人余った場合、その人は不戦勝。</t>
+  </si>
+  <si>
+    <t>基本形</t>
+  </si>
+  <si>
+    <t>既存ツールで再現</t>
+  </si>
+  <si>
+    <t>１回戦</t>
+  </si>
+  <si>
+    <t>相手</t>
+  </si>
+  <si>
+    <t>対戦済み</t>
+  </si>
+  <si>
+    <t>結果</t>
+  </si>
+  <si>
+    <t>POINT</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>〇</t>
+  </si>
+  <si>
+    <t>オ</t>
+  </si>
+  <si>
+    <t>楽</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>鷹</t>
+  </si>
+  <si>
+    <t>ロ</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>公</t>
+  </si>
+  <si>
+    <t>猫</t>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t>２回戦</t>
+  </si>
+  <si>
+    <t>3回戦</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>楽鷹</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>ロオ</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>猫楽</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>鷹猫</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>公オ</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>オ公</t>
+  </si>
+  <si>
+    <t>３回戦考</t>
+  </si>
+  <si>
+    <t>①</t>
+  </si>
+  <si>
+    <t>２点のAC</t>
+  </si>
+  <si>
+    <t>②</t>
+  </si>
+  <si>
+    <t>１点のBEは組めない</t>
+  </si>
+  <si>
+    <t>③</t>
+  </si>
+  <si>
+    <t>B視点でBD、BFは可能</t>
+  </si>
+  <si>
+    <t>④</t>
+  </si>
+  <si>
+    <t>E視点でEDは可能、EFは不可能</t>
+  </si>
+  <si>
+    <t>⑤</t>
+  </si>
+  <si>
+    <t>AC、BF、DE</t>
+  </si>
+  <si>
+    <t>4回戦</t>
+  </si>
+  <si>
+    <t>BCD</t>
+  </si>
+  <si>
+    <t>楽鷹公</t>
+  </si>
+  <si>
+    <t>AEF</t>
+  </si>
+  <si>
+    <t>ロオ猫</t>
+  </si>
+  <si>
+    <t>ADF</t>
+  </si>
+  <si>
+    <t>猫楽オ</t>
+  </si>
+  <si>
+    <t>ACE</t>
+  </si>
+  <si>
+    <t>鷹猫楽</t>
+  </si>
+  <si>
+    <t>BDF</t>
+  </si>
+  <si>
+    <t>公オ鷹</t>
+  </si>
+  <si>
+    <t>BCE</t>
+  </si>
+  <si>
+    <t>オ公ロ</t>
+  </si>
+  <si>
+    <t>４回戦考</t>
+  </si>
+  <si>
+    <t>Aと同じ３点はいない</t>
+  </si>
+  <si>
+    <t>オと同じ３点はいない</t>
+  </si>
+  <si>
+    <t>２点のB、Cと組めない</t>
+  </si>
+  <si>
+    <t>２点の鷹公と組めない</t>
+  </si>
+  <si>
+    <t>１点のDと組めない</t>
+  </si>
+  <si>
+    <t>１点のロ猫どちらでも</t>
+  </si>
+  <si>
+    <t>オロ</t>
+  </si>
+  <si>
+    <t>２点のB、C組める</t>
+  </si>
+  <si>
+    <t>２点の鷹公組める</t>
+  </si>
+  <si>
+    <t>⑥</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>楽猫</t>
+  </si>
+  <si>
+    <t>⑦</t>
+  </si>
+  <si>
+    <t>奇数</t>
+  </si>
+  <si>
+    <t>不戦勝</t>
+  </si>
+  <si>
+    <t>２回戦考</t>
+  </si>
+  <si>
+    <t>不戦勝のCから相手を探す</t>
+  </si>
+  <si>
+    <t>A、B可能</t>
+  </si>
+  <si>
+    <t>Bと組める１点なし</t>
+  </si>
+  <si>
+    <t>０点だとDと組める</t>
+  </si>
+  <si>
+    <t>E不戦勝</t>
+  </si>
+  <si>
+    <t>対戦相手を決める順番優先順位</t>
+  </si>
+  <si>
+    <t>前回不戦勝</t>
+  </si>
+  <si>
+    <t>前回同じ相手と再戦させてしまった人</t>
+  </si>
+  <si>
+    <t>最高得点</t>
+  </si>
+  <si>
+    <t>～</t>
+  </si>
+  <si>
+    <t>最低得点</t>
+  </si>
+  <si>
+    <t>対戦相手候補が複数いた場合、ランダムで決定しつつ変更可能フラグを設置</t>
+  </si>
+  <si>
+    <t>最低得点の組み合わせが組み合わせ不可だった場合、</t>
+  </si>
+  <si>
+    <t>最低得点に近い変更可能フラグを付与した組み合わせまで戻り</t>
+  </si>
+  <si>
+    <t>変更したうえで再計算</t>
+  </si>
+  <si>
     <t>名</t>
   </si>
   <si>
@@ -65,9 +350,6 @@
     <t>もやもやポイント</t>
   </si>
   <si>
-    <t>①</t>
-  </si>
-  <si>
     <t>大会テーブル</t>
   </si>
   <si>
@@ -86,18 +368,27 @@
     <t>ステータス</t>
   </si>
   <si>
-    <t>募集中、開催中、終了</t>
-  </si>
-  <si>
-    <t>クローズド募集はここかもう一個作るかどうすっぺ</t>
+    <t>開催前、開催中、終了</t>
+  </si>
+  <si>
+    <t>募集</t>
+  </si>
+  <si>
+    <t>0しない1する</t>
+  </si>
+  <si>
+    <t>紹介URLだけとかを追加するかも</t>
+  </si>
+  <si>
+    <t>公開</t>
+  </si>
+  <si>
+    <t>boolでもいいけど上とあわせちゃう</t>
   </si>
   <si>
     <t>開始日</t>
   </si>
   <si>
-    <t>結果</t>
-  </si>
-  <si>
     <t>何保持したい？</t>
   </si>
   <si>
@@ -107,9 +398,6 @@
     <t>min4、int</t>
   </si>
   <si>
-    <t>②</t>
-  </si>
-  <si>
     <t>対戦テーブル</t>
   </si>
   <si>
@@ -141,8 +429,7 @@
   </si>
   <si>
     <t>ここはcsvで結果入れる
-1,2が参加者勝ったほう
-0分け、</t>
+参加者1を主観として勝ち1分け0,負け-1</t>
   </si>
   <si>
     <t>ダブルノックダウンとかは０</t>
@@ -160,9 +447,6 @@
     <t>何試合目か</t>
   </si>
   <si>
-    <t>③</t>
-  </si>
-  <si>
     <t>参加者テーブル</t>
   </si>
   <si>
@@ -211,9 +495,6 @@
     <t>参加登録、参加中、不参加</t>
   </si>
   <si>
-    <t>④</t>
-  </si>
-  <si>
     <t>ユーザーテーブル</t>
   </si>
   <si>
@@ -298,9 +579,6 @@
     <t>→一人北</t>
   </si>
   <si>
-    <t>不戦勝</t>
-  </si>
-  <si>
     <t>↓誰一人来ませんでした</t>
   </si>
   <si>
@@ -361,16 +639,13 @@
     <t>※1へ</t>
   </si>
   <si>
-    <t>集計開始</t>
-  </si>
-  <si>
-    <t>select 参加者テーブル.ID 参加者テーブル.ポイント  sum(参加者テーブル2.ポイント) as SOS</t>
-  </si>
-  <si>
-    <t>from 参加者テーブル  join on 参加者テーブル as 参加者テーブル2</t>
-  </si>
-  <si>
-    <t>Where 参加者テーブル.トーナメントID = $トーナメントID and 参加者テーブル.ステータス = $ステータス order by disc</t>
+    <t>試合参加者IDを集約</t>
+  </si>
+  <si>
+    <t>参加者の勝敗ポイントを更新</t>
+  </si>
+  <si>
+    <t>各オプションの計算を実行</t>
   </si>
 </sst>
 </file>
@@ -422,7 +697,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,6 +708,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAD1DC"/>
+        <bgColor rgb="FFEAD1DC"/>
       </patternFill>
     </fill>
     <fill>
@@ -460,7 +753,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -495,11 +788,28 @@
     <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -798,20 +1108,1425 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="7" max="7" width="18.63"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="6" t="s">
+    <row r="5">
+      <c r="A5" s="6" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" s="7">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" s="7">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L24" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L30" s="7">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L31" s="7">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L32" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L33" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L34" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+    </row>
+    <row r="38">
+      <c r="B38" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+    </row>
+    <row r="39">
+      <c r="B39" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+    </row>
+    <row r="40">
+      <c r="B40" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+    </row>
+    <row r="41">
+      <c r="B41" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+    </row>
+    <row r="42">
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+    </row>
+    <row r="43">
+      <c r="B43" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K52" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L52" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J53" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K53" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L53" s="12">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J54" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K54" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L54" s="12">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J55" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K55" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L55" s="12">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J56" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K56" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L56" s="12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J57" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K57" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L57" s="12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I58" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J58" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K58" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L58" s="12">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F61" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F62" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F64" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F65" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C74" s="13"/>
+    </row>
+    <row r="75">
+      <c r="B75" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -834,314 +2549,333 @@
   <sheetData>
     <row r="2">
       <c r="B2" s="7" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="7" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="7" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" s="7" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6">
       <c r="D6" s="7" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7">
       <c r="D7" s="7" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8">
       <c r="D8" s="7" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9">
       <c r="D9" s="7" t="s">
-        <v>25</v>
+        <v>118</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="D10" s="7" t="s">
-        <v>26</v>
+        <v>121</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>27</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
       <c r="D11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>29</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="D12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="7" t="s">
-        <v>31</v>
+      <c r="D13" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="15">
-      <c r="C15" s="7" t="s">
-        <v>32</v>
+      <c r="B15" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="16">
-      <c r="D16" s="7" t="s">
-        <v>19</v>
+      <c r="B16" s="7" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="17">
-      <c r="D17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>34</v>
+      <c r="C17" s="7" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="18">
       <c r="D18" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19">
       <c r="D19" s="7" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20">
       <c r="D20" s="7" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21">
       <c r="D21" s="7" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" ht="36.75" customHeight="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="D22" s="7" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23">
       <c r="D23" s="7" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" ht="73.5" customHeight="1">
       <c r="D24" s="7" t="s">
-        <v>45</v>
+        <v>20</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>137</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="7" t="s">
-        <v>47</v>
+      <c r="D25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="7" t="s">
-        <v>48</v>
+      <c r="D26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="27">
-      <c r="C27" s="7" t="s">
-        <v>49</v>
+      <c r="B27" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="28">
-      <c r="D28" s="7" t="s">
-        <v>19</v>
+      <c r="B28" s="7" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="29">
-      <c r="D29" s="7" t="s">
-        <v>50</v>
+      <c r="C29" s="7" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="30">
       <c r="D30" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" ht="67.5" customHeight="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="D31" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>52</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32">
       <c r="D32" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" ht="67.5" customHeight="1">
       <c r="D33" s="7" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="D34" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="D35" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="7"/>
+      <c r="D36" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="7"/>
+      <c r="D37" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="D38" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="D39" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="D40" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42">
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+    </row>
+    <row r="47">
+      <c r="B47" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34">
-      <c r="B34" s="7"/>
-      <c r="D34" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" s="7"/>
-      <c r="D35" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="D36" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="D37" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="D38" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-    </row>
-    <row r="40">
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-    </row>
-    <row r="45">
-      <c r="B45" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="C47" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
     <row r="48">
-      <c r="D48" s="7" t="s">
-        <v>19</v>
+      <c r="B48" s="7" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="49">
-      <c r="D49" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>67</v>
+      <c r="C49" s="7" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="50">
       <c r="D50" s="7" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51">
       <c r="D51" s="7" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>69</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="D52" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="D53" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1166,356 +2900,356 @@
   <sheetData>
     <row r="2">
       <c r="B2" s="7" t="s">
-        <v>70</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="s">
-        <v>71</v>
+      <c r="A4" s="16" t="s">
+        <v>165</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>74</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="10"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="7" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="10"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="7" t="s">
-        <v>76</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="10"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="7" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="10"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="7" t="s">
-        <v>78</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="10"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="7" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="10"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="7" t="s">
-        <v>79</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="10"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="7" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="s">
-        <v>80</v>
+      <c r="A12" s="18" t="s">
+        <v>174</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>81</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="12"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="7" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="12"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="7" t="s">
-        <v>76</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="12"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="7" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="12"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="7" t="s">
-        <v>82</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="12"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="7" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="12"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="7" t="s">
-        <v>79</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="12"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="7" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="13" t="s">
-        <v>83</v>
+      <c r="A20" s="20" t="s">
+        <v>177</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>84</v>
+        <v>178</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>85</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="14"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="7" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="14"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="7" t="s">
-        <v>86</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="14"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="7" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="14"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="7" t="s">
-        <v>87</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="7" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="s">
-        <v>80</v>
+      <c r="A26" s="18" t="s">
+        <v>174</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>88</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="12"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="7" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="12"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="19"/>
+      <c r="B29" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="19"/>
+      <c r="B30" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="12"/>
-      <c r="B29" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="12"/>
-      <c r="B30" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
     <row r="31">
-      <c r="A31" s="12"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="7" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>94</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="12"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="7" t="s">
-        <v>95</v>
+        <v>188</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>96</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="12"/>
+      <c r="A33" s="19"/>
       <c r="B33" s="7" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="7" t="s">
-        <v>97</v>
+        <v>190</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>98</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="s">
-        <v>80</v>
+      <c r="A35" s="18" t="s">
+        <v>174</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="12"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="7" t="s">
-        <v>99</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="12"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="7" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="12"/>
+      <c r="A38" s="19"/>
       <c r="B38" s="7" t="s">
-        <v>100</v>
+        <v>193</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>101</v>
+        <v>194</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>102</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="12"/>
+      <c r="A39" s="19"/>
       <c r="B39" s="7" t="s">
-        <v>103</v>
+        <v>196</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="12"/>
+      <c r="A40" s="19"/>
       <c r="B40" s="7" t="s">
-        <v>104</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="12"/>
+      <c r="A41" s="19"/>
       <c r="B41" s="7" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="12"/>
+      <c r="A42" s="19"/>
       <c r="B42" s="7" t="s">
-        <v>105</v>
+        <v>198</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="12"/>
+      <c r="A43" s="19"/>
       <c r="B43" s="7" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="12"/>
+      <c r="A44" s="19"/>
       <c r="B44" s="7" t="s">
-        <v>106</v>
+        <v>199</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="12"/>
+      <c r="A45" s="19"/>
       <c r="B45" s="7" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="12"/>
+      <c r="A46" s="19"/>
       <c r="B46" s="7" t="s">
-        <v>107</v>
+        <v>200</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>108</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="12"/>
+      <c r="A47" s="19"/>
       <c r="B47" s="7" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="12"/>
+      <c r="A48" s="19"/>
       <c r="B48" s="7" t="s">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>110</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="12"/>
+      <c r="A49" s="19"/>
       <c r="B49" s="7" t="s">
-        <v>111</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="12"/>
+      <c r="A50" s="19"/>
       <c r="B50" s="7" t="s">
-        <v>112</v>
+        <v>205</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="12"/>
+      <c r="A51" s="19"/>
       <c r="B51" s="7" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="12"/>
+      <c r="A52" s="19"/>
       <c r="B52" s="7" t="s">
-        <v>113</v>
+        <v>206</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="12"/>
+      <c r="A53" s="19"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1532,25 +3266,26 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
     <row r="2">
-      <c r="B2" s="7" t="s">
-        <v>114</v>
+      <c r="A2" s="7" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="7" t="s">
-        <v>115</v>
+      <c r="A3" s="7" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="8" t="s">
-        <v>116</v>
-      </c>
+      <c r="B4" s="8"/>
     </row>
     <row r="7">
-      <c r="B7" s="8" t="s">
-        <v>117</v>
-      </c>
+      <c r="B7" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/まさかこれが設計書とは思うまい.xlsx
+++ b/まさかこれが設計書とは思うまい.xlsx
@@ -8,6 +8,7 @@
     <sheet state="visible" name="雑DB設計" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="正常系フロー" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="集計計算" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="画面機能：大会の作成" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="221">
   <si>
     <t>勝数</t>
   </si>
@@ -326,13 +327,40 @@
     <t>対戦相手候補が複数いた場合、ランダムで決定しつつ変更可能フラグを設置</t>
   </si>
   <si>
+    <t>同じポイント内に対戦相手候補がいない場合</t>
+  </si>
+  <si>
+    <t>一つ下の同ポイントグループに移籍</t>
+  </si>
+  <si>
+    <t>再計算</t>
+  </si>
+  <si>
     <t>最低得点の組み合わせが組み合わせ不可だった場合、</t>
   </si>
   <si>
-    <t>最低得点に近い変更可能フラグを付与した組み合わせまで戻り</t>
-  </si>
-  <si>
-    <t>変更したうえで再計算</t>
+    <t>変更可能フラグのあるポイントグループを検索</t>
+  </si>
+  <si>
+    <t>ある</t>
+  </si>
+  <si>
+    <t>最低得点に近い変更可能フラグ持ちポイントグループに移籍</t>
+  </si>
+  <si>
+    <t>移籍したポイントグループ以降のマッチングを解消</t>
+  </si>
+  <si>
+    <t>ない</t>
+  </si>
+  <si>
+    <t>最後に2人残り</t>
+  </si>
+  <si>
+    <t>そのまま残った二人ペアにする</t>
+  </si>
+  <si>
+    <t>最後一人残り</t>
   </si>
   <si>
     <t>名</t>
@@ -419,7 +447,7 @@
     <t>参加者2</t>
   </si>
   <si>
-    <t>作成、片方着席、両者着席、開始、片方終了、終了</t>
+    <t>作成、片方着席、両者着席、片方終了、抗告、終了</t>
   </si>
   <si>
     <t>created</t>
@@ -493,6 +521,12 @@
   </si>
   <si>
     <t>参加登録、参加中、不参加</t>
+  </si>
+  <si>
+    <t>優先度</t>
+  </si>
+  <si>
+    <t>次戦優先度</t>
   </si>
   <si>
     <t>ユーザーテーブル</t>
@@ -835,6 +869,10 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -2520,13 +2558,90 @@
       </c>
     </row>
     <row r="93">
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="7"/>
+      <c r="C93" s="7" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="94">
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="7"/>
+      <c r="C94" s="7" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" s="7"/>
+      <c r="C96" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" s="7"/>
+      <c r="C97" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" s="7"/>
+      <c r="D98" s="7"/>
+    </row>
+    <row r="99">
+      <c r="B99" s="7"/>
+      <c r="D99" s="7"/>
+    </row>
+    <row r="100">
+      <c r="B100" s="7"/>
+      <c r="D100" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="D101" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" s="7"/>
+      <c r="D102" s="7"/>
+    </row>
+    <row r="103">
+      <c r="B103" s="7"/>
+      <c r="D103" s="7"/>
+    </row>
+    <row r="104">
+      <c r="B104" s="7"/>
+      <c r="D104" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="C105" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="D106" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="E107" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="D108" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="E109" s="7" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2549,19 +2664,19 @@
   <sheetData>
     <row r="2">
       <c r="B2" s="7" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3">
@@ -2571,60 +2686,60 @@
     </row>
     <row r="4">
       <c r="B4" s="7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" s="7" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6">
       <c r="D6" s="7" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
       <c r="D7" s="7" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8">
       <c r="D8" s="7" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="D9" s="7" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10">
       <c r="D10" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11">
       <c r="D11" s="7" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
@@ -2632,15 +2747,15 @@
         <v>20</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13">
       <c r="D13" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15">
@@ -2650,57 +2765,57 @@
     </row>
     <row r="16">
       <c r="B16" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17">
       <c r="C17" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18">
       <c r="D18" s="7" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19">
       <c r="D19" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20">
       <c r="D20" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21">
       <c r="D21" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22">
       <c r="D22" s="7" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23">
       <c r="D23" s="7" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" ht="73.5" customHeight="1">
@@ -2708,26 +2823,26 @@
         <v>20</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25">
       <c r="D25" s="7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26">
       <c r="D26" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27">
@@ -2737,101 +2852,108 @@
     </row>
     <row r="28">
       <c r="B28" s="7" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29">
       <c r="C29" s="7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30">
       <c r="D30" s="7" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31">
       <c r="D31" s="7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32">
       <c r="D32" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" ht="67.5" customHeight="1">
       <c r="D33" s="7" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34">
       <c r="D34" s="7" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35">
       <c r="D35" s="7" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="7"/>
       <c r="D36" s="7" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" s="7"/>
       <c r="D37" s="8" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38">
       <c r="D38" s="8" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39">
       <c r="D39" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40">
       <c r="D40" s="7" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41">
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
+      <c r="D41" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="42">
       <c r="D42" s="7"/>
@@ -2844,38 +2966,38 @@
     </row>
     <row r="48">
       <c r="B48" s="7" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49">
       <c r="C49" s="7" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50">
       <c r="D50" s="7" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51">
       <c r="D51" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52">
       <c r="D52" s="7" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53">
       <c r="D53" s="7" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2900,195 +3022,195 @@
   <sheetData>
     <row r="2">
       <c r="B2" s="7" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="17"/>
       <c r="B5" s="7" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="17"/>
       <c r="B6" s="7" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="17"/>
       <c r="B7" s="7" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="17"/>
       <c r="B8" s="7" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="17"/>
       <c r="B9" s="7" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="17"/>
       <c r="B10" s="7" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="17"/>
       <c r="B11" s="7" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="19"/>
       <c r="B13" s="7" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="19"/>
       <c r="B14" s="7" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="19"/>
       <c r="B15" s="7" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="19"/>
       <c r="B16" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="19"/>
       <c r="B17" s="7" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="19"/>
       <c r="B18" s="7" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="19"/>
       <c r="B19" s="7" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="20" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>167</v>
-      </c>
       <c r="D20" s="7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="21"/>
       <c r="B21" s="7" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="21"/>
       <c r="B22" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="21"/>
       <c r="B23" s="7" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="21"/>
       <c r="B24" s="7" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="21"/>
       <c r="B25" s="7" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="18" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="19"/>
       <c r="B27" s="7" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="19"/>
       <c r="B28" s="7" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="19"/>
       <c r="B29" s="7" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="19"/>
       <c r="B30" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>89</v>
@@ -3097,155 +3219,155 @@
     <row r="31">
       <c r="A31" s="19"/>
       <c r="B31" s="7" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="19"/>
       <c r="B32" s="7" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="19"/>
       <c r="B33" s="7" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="7" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="18" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="19"/>
       <c r="B36" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="19"/>
       <c r="B37" s="7" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="19"/>
       <c r="B38" s="7" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="19"/>
       <c r="B39" s="7" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="19"/>
       <c r="B40" s="7" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="19"/>
       <c r="B41" s="7" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="19"/>
       <c r="B42" s="7" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="19"/>
       <c r="B43" s="7" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="19"/>
       <c r="B44" s="7" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="19"/>
       <c r="B45" s="7" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="19"/>
       <c r="B46" s="7" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="19"/>
       <c r="B47" s="7" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="19"/>
       <c r="B48" s="7" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="19"/>
       <c r="B49" s="7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="19"/>
       <c r="B50" s="7" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="19"/>
       <c r="B51" s="7" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="19"/>
       <c r="B52" s="7" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
     </row>
     <row r="53">
@@ -3268,17 +3390,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4">
@@ -3290,4 +3412,18 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>